--- a/Job time.xlsx
+++ b/Job time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirka\Documents\GitHub\Sample_scaner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirka\Documents\GitHub\micro-flakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA0C323-3D43-4D4F-89CA-9E33F20F4538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C89288-5791-4DE8-B4BC-D7A7717CE7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,7 +560,7 @@
       </c>
       <c r="J3" s="3">
         <f>SUM(G13:G23)</f>
-        <v>6687.5</v>
+        <v>6812.5</v>
       </c>
       <c r="K3">
         <v>10000</v>
@@ -962,18 +962,18 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C20" s="1">
-        <v>0.625</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>0.10416666666666674</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="1"/>
-        <v>500.00000000000023</v>
+        <v>625.00000000000045</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">

--- a/Job time.xlsx
+++ b/Job time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirka\Documents\GitHub\micro-flakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C89288-5791-4DE8-B4BC-D7A7717CE7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68032978-643E-49A4-AACC-352F7D80E14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1450" windowWidth="10890" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>11. 9.</t>
   </si>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,7 +560,7 @@
       </c>
       <c r="J3" s="3">
         <f>SUM(G13:G23)</f>
-        <v>6812.5</v>
+        <v>7354.1666666666661</v>
       </c>
       <c r="K3">
         <v>10000</v>
@@ -977,13 +977,22 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0277777777777735E-2</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>541.6666666666664</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">

--- a/Job time.xlsx
+++ b/Job time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirka\Documents\GitHub\micro-flakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68032978-643E-49A4-AACC-352F7D80E14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCB81D5-2D9F-4EAE-BC3A-A2F2894D4B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1450" windowWidth="10890" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>11. 9.</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>22. 10.</t>
+  </si>
+  <si>
+    <t>24. 10.</t>
+  </si>
+  <si>
+    <t>25. 10.</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,7 +566,7 @@
       </c>
       <c r="J3" s="3">
         <f>SUM(G13:G23)</f>
-        <v>7354.1666666666661</v>
+        <v>7791.6666666666661</v>
       </c>
       <c r="K3">
         <v>10000</v>
@@ -977,6 +983,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B21" s="1">
         <v>0.40972222222222227</v>
       </c>
@@ -996,13 +1005,25 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.2916666666666685E-2</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>437.50000000000011</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">

--- a/Job time.xlsx
+++ b/Job time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirka\Documents\GitHub\micro-flakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCB81D5-2D9F-4EAE-BC3A-A2F2894D4B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CDBE2B-83CE-4648-A7A2-744FF0C23094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>11. 9.</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>25. 10.</t>
+  </si>
+  <si>
+    <t>27. 10.</t>
+  </si>
+  <si>
+    <t>documentatio</t>
   </si>
 </sst>
 </file>
@@ -464,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,7 +572,7 @@
       </c>
       <c r="J3" s="3">
         <f>SUM(G13:G23)</f>
-        <v>7791.6666666666661</v>
+        <v>8166.6666666666661</v>
       </c>
       <c r="K3">
         <v>10000</v>
@@ -1027,13 +1033,28 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">

--- a/Job time.xlsx
+++ b/Job time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirka\Documents\GitHub\micro-flakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CDBE2B-83CE-4648-A7A2-744FF0C23094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B6B29F-7CCE-40A1-B7E6-6F28146E15C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>11. 9.</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>documentatio</t>
+  </si>
+  <si>
+    <t>28. 10.</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1058,16 +1064,31 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>249.99999999999977</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Job time.xlsx
+++ b/Job time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirka\Documents\GitHub\micro-flakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B6B29F-7CCE-40A1-B7E6-6F28146E15C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A682ADE-227B-4554-BEF5-932D54797538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,28 @@
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>11. 9.</t>
   </si>
@@ -153,7 +165,7 @@
     <t>28. 10.</t>
   </si>
   <si>
-    <t>S</t>
+    <t>1. 11.</t>
   </si>
 </sst>
 </file>
@@ -477,7 +489,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1086,16 +1098,25 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.40625</v>
+      </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
